--- a/src/main/java/com/thewalking/shop/Product-inventory.xlsx
+++ b/src/main/java/com/thewalking/shop/Product-inventory.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\serka\Documents\CogentTheWalking\shop\shop\src\main\java\com\thewalking\shop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7318E0F6-71C3-4E91-9657-B593A6D19308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B8C318-68B7-4DCD-B8B9-31D742512D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Stories" sheetId="5" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="156">
   <si>
     <t>product</t>
   </si>
@@ -403,6 +405,282 @@
       <t>| Last digits: 3392</t>
     </r>
   </si>
+  <si>
+    <t>Feedback</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O M - Check Reviews </t>
+  </si>
+  <si>
+    <t>C - provide feedback to company. An email should be sent to customer to acknowledge the delivery</t>
+  </si>
+  <si>
+    <t>O M - Respond to customer who left a feedback for the company</t>
+  </si>
+  <si>
+    <t>C - Write product feedback</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Anyone can create customer profile</t>
+  </si>
+  <si>
+    <t>M - can create employee with newHire role
+newhire: doesn't have any authorization</t>
+  </si>
+  <si>
+    <t>M - can mark an employee's role as FIRE</t>
+  </si>
+  <si>
+    <t>O - can approve or reject a new hire and fire</t>
+  </si>
+  <si>
+    <t>O - employee view: salary leaaves, present days in a month</t>
+  </si>
+  <si>
+    <t>M - employee view: see employee details, update profile</t>
+  </si>
+  <si>
+    <t>M - create customer profile for walk-in customers</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>All - See product details like a name id price availability sizes, and product reviews</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>M - Request for product</t>
+  </si>
+  <si>
+    <t>M - Check availability</t>
+  </si>
+  <si>
+    <t>O stock details: see total numbers one branch or all branches together at a time</t>
+  </si>
+  <si>
+    <t>O - email service: give direct order to manufacturer and see requests from managers</t>
+  </si>
+  <si>
+    <t>M - stock view: see branch's stock</t>
+  </si>
+  <si>
+    <t>M - new pair request: make a request for in-store items or new designs</t>
+  </si>
+  <si>
+    <t>C - Current Offers</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>M - Customers visited on a specific date</t>
+  </si>
+  <si>
+    <t>S - Remove an item from cart</t>
+  </si>
+  <si>
+    <t>S - Dispute an order and give reorder(q)</t>
+  </si>
+  <si>
+    <t>O - See all orders</t>
+  </si>
+  <si>
+    <t>O M S - Check new order request</t>
+  </si>
+  <si>
+    <t>M S - Billing a customer</t>
+  </si>
+  <si>
+    <t>C - Cancel an Order</t>
+  </si>
+  <si>
+    <t>C - Add to cart and checkout</t>
+  </si>
+  <si>
+    <t>C - Pay cash or online on delivery</t>
+  </si>
+  <si>
+    <t>C - Return product online or in person with orderId and valid reason</t>
+  </si>
+  <si>
+    <t>O - View orders one customer or one branch at a time</t>
+  </si>
+  <si>
+    <t>M - For walk-in customers, place order cancel, add or remove</t>
+  </si>
+  <si>
+    <t>M - check and reply feedbacks</t>
+  </si>
+  <si>
+    <t>O M - Can add edit categories</t>
+  </si>
+  <si>
+    <t>O M - Can add edit manufacturers</t>
+  </si>
+  <si>
+    <t>Manufacturers</t>
+  </si>
+  <si>
+    <t>{{base}}/customers/signup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    {
+        "email": "{{name-user4}}@gmail.com",
+        "password": "{{password-user4}}",
+        "role": "CUSTOMER",
+        "firstName": "John",
+        "lastName": "Jones",
+        "phone": "598595959",
+        "address": {
+            "addressee": "John Jones1",
+            "civicAddress": "10-123 1/2 MAIN ST SE",
+            "municipality": "MONTREAL",
+            "province": "QC",
+            "postalCode": "H3Z 2Y7"
+        },
+        "active": true
+    }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    {
+        "email": "{{name-user4}}@gmail.com",
+        "password": "{{password-user4}}",
+        "role": "HIREREQ",
+        "firstName": "John",
+        "lastName": "Jones",
+        "phone": "598595959",
+        "address": {
+            "addressee": "John Jones1",
+            "civicAddress": "10-123 1/2 MAIN ST SE",
+            "municipality": "MONTREAL",
+            "province": "QC",
+            "postalCode": "H3Z 2Y7"
+        },
+        "branch": {
+            "id":2
+        },
+        "active": true
+    }</t>
+  </si>
+  <si>
+    <t>{{base}}/employees</t>
+  </si>
+  <si>
+    <t>{
+    "id": 63,
+    "timestamp": "2021-07-17T13:54:07.9644607",
+    "email": "ab5662254762665052761213965980@gmail.com",
+    "role": "FIREREQ",
+    "firstName": "John",
+    "lastName": "Jones",
+    "phone": "598595959",
+    "address": {
+        "id": 78,
+        "addressee": "John Jones1",
+        "civicAddress": "10-123 1/2 MAIN ST SE",
+        "municipality": "MONTREAL",
+        "province": "QC",
+        "postalCode": "H3Z 2Y7"
+    },
+    "branch": {
+        "id": 2,
+        "dateCreated": null,
+        "branchName": null,
+        "address": null,
+        "active": false
+    },
+    "active": true
+}</t>
+  </si>
+  <si>
+    <t>{
+    "id": 63,
+    "timestamp": "2021-07-17T13:54:07.9644607",
+    "email": "ab5662254762665052761213965980@gmail.com",
+    "role": "EMPLOYEE",
+    "firstName": "John",
+    "lastName": "Jones",
+    "phone": "598595959",
+    "address": {
+        "id": 78,
+        "addressee": "John Jones1",
+        "civicAddress": "10-123 1/2 MAIN ST SE",
+        "municipality": "MONTREAL",
+        "province": "QC",
+        "postalCode": "H3Z 2Y7"
+    },
+    "branch": {
+        "id": 2,
+        "dateCreated": null,
+        "branchName": null,
+        "address": null,
+        "active": false
+    },
+    "active": true
+}</t>
+  </si>
+  <si>
+    <t>{{base}}/productdescriptions</t>
+  </si>
+  <si>
+    <t>{
+  "active": true,
+  "brand": "Gucci",
+  "categories": "women kids",
+  "description": "Hat",
+  "image": "imageLink",
+  "keyWords": "gucci oval high-quality",
+  "manufacturer": null,
+  "title": "Gucci Hat"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "createdBy": "ab43618692677374489761007507@gmail.com",
+    "createdDate": "2021-07-17T19:50:23.906+00:00",
+    "lastModifiedBy": "ab43618692677374489761007507@gmail.com",
+    "lastModifiedDate": "2021-07-17T19:50:23.906+00:00",
+    "id": 9,
+    "title": "shirt v-x",
+    "description": "description",
+    "image": "abc",
+    "keyWords": null,
+    "brand": "abcde",
+    "categories": null,
+    "manufacturer": null,
+    "active": true
+}</t>
+  </si>
+  <si>
+    <t>View All Products</t>
+  </si>
+  <si>
+    <t>O M  - Enter new product details</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> M O - Edit Product Details</t>
+  </si>
+  <si>
+    <t>All - Search product with SKU Code</t>
+  </si>
+  <si>
+    <t>All - Search product details with product title, key words, categoryList</t>
+  </si>
+  <si>
+    <t>{{base}}/productdescriptions/search/t-shirt</t>
+  </si>
+  <si>
+    <t>M Stocks available for Branch</t>
+  </si>
+  <si>
+    <t>O - Stocks available</t>
+  </si>
 </sst>
 </file>
 
@@ -411,7 +689,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -527,8 +805,22 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="Corbel"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="Corbel"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -571,8 +863,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -613,11 +917,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -666,6 +985,27 @@
     </xf>
     <xf numFmtId="10" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -946,6 +1286,323 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{612DC713-9A32-4A78-A9EA-0C7C8E8F876A}">
+  <dimension ref="A1:E57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="53.875" style="27" customWidth="1"/>
+    <col min="2" max="2" width="35.25" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.25" style="28" customWidth="1"/>
+    <col min="4" max="4" width="34.75" style="26" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="26"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6" s="26" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="132" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="156.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="206.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="206.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" s="30"/>
+      <c r="C16" s="31"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17" s="30"/>
+      <c r="C17" s="31"/>
+    </row>
+    <row r="18" spans="1:3" ht="132" x14ac:dyDescent="0.25">
+      <c r="A18" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="82.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="C24" s="29"/>
+    </row>
+    <row r="25" spans="1:3" ht="123.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="C26" s="29"/>
+    </row>
+    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="26"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="27" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="27" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="27" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="27" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="27" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="27" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="27" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="27" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="25" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="27" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="27" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="27" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="27" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="27" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="27" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="27" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="27" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="27" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="27" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R30"/>
   <sheetViews>
@@ -1289,11 +1946,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29389A1D-45DC-441A-95CB-1345AF91E001}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -1415,7 +2072,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AF8D597-DC04-44AD-BF1B-29EBE41E28B7}">
   <dimension ref="A1:F14"/>
   <sheetViews>
@@ -1672,4 +2329,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BB1C545-CC86-439A-BD98-EEE0FEFED9FF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/java/com/thewalking/shop/Product-inventory.xlsx
+++ b/src/main/java/com/thewalking/shop/Product-inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\serka\Documents\CogentTheWalking\shop\shop\src\main\java\com\thewalking\shop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B8C318-68B7-4DCD-B8B9-31D742512D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70262E98-A447-40D3-8A63-45D45FDAD5E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="159">
   <si>
     <t>product</t>
   </si>
@@ -680,6 +680,15 @@
   </si>
   <si>
     <t>O - Stocks available</t>
+  </si>
+  <si>
+    <t>{{base}}/stocks/report/counts/1</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>{{base}}/stocks/report/counts</t>
   </si>
 </sst>
 </file>
@@ -1289,8 +1298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{612DC713-9A32-4A78-A9EA-0C7C8E8F876A}">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1476,77 +1485,89 @@
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="27" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="27" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="27" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="27" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="27" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="27" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="27" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="27" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="27" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="27" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="25" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="27" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="27" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="27" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="27" t="s">
         <v>126</v>
       </c>

--- a/src/main/java/com/thewalking/shop/Product-inventory.xlsx
+++ b/src/main/java/com/thewalking/shop/Product-inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\serka\Documents\CogentTheWalking\shop\shop\src\main\java\com\thewalking\shop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70262E98-A447-40D3-8A63-45D45FDAD5E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F63B24-BB04-409F-AC89-2CC934253B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="163">
   <si>
     <t>product</t>
   </si>
@@ -459,9 +459,6 @@
   </si>
   <si>
     <t>M - Check availability</t>
-  </si>
-  <si>
-    <t>O stock details: see total numbers one branch or all branches together at a time</t>
   </si>
   <si>
     <t>O - email service: give direct order to manufacturer and see requests from managers</t>
@@ -689,6 +686,34 @@
   </si>
   <si>
     <t>{{base}}/stocks/report/counts</t>
+  </si>
+  <si>
+    <t>{
+    "quantityRequested": 100,
+    "status": false,
+    "manager": {
+        "id":9
+    },
+    "owner": null,
+    "stock": {
+        "id": 8
+    }
+}</t>
+  </si>
+  <si>
+    <t>O stock details: see total numbers for all branches together at a time</t>
+  </si>
+  <si>
+    <t>O stock details: see total numbers for one branch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{base}}/stockrequests
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{base}}/stockrequests
+*However, the manager should create the productDescription(if not exists), then the product(if not exists), then the stock with quantity of zero to claim a new design. All these entries contain enough information to convince the big BOSS*
+</t>
   </si>
 </sst>
 </file>
@@ -1296,10 +1321,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{612DC713-9A32-4A78-A9EA-0C7C8E8F876A}">
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1324,7 +1349,7 @@
         <v>100</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1342,12 +1367,12 @@
         <v>103</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E6" s="26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1360,10 +1385,10 @@
         <v>105</v>
       </c>
       <c r="B12" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="C12" s="29" t="s">
         <v>139</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="156.75" x14ac:dyDescent="0.25">
@@ -1371,10 +1396,10 @@
         <v>106</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="206.25" x14ac:dyDescent="0.25">
@@ -1382,10 +1407,10 @@
         <v>107</v>
       </c>
       <c r="B14" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="29" t="s">
         <v>142</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="206.25" x14ac:dyDescent="0.25">
@@ -1393,10 +1418,10 @@
         <v>108</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1418,10 +1443,10 @@
         <v>111</v>
       </c>
       <c r="B18" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18" s="29" t="s">
         <v>139</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1431,41 +1456,41 @@
     </row>
     <row r="23" spans="1:3" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B23" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="C23" s="29" t="s">
         <v>145</v>
-      </c>
-      <c r="C23" s="29" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C24" s="29"/>
     </row>
     <row r="25" spans="1:3" ht="123.75" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="B26" s="26" t="s">
         <v>152</v>
-      </c>
-      <c r="B26" s="26" t="s">
-        <v>153</v>
       </c>
       <c r="C26" s="29"/>
     </row>
@@ -1474,147 +1499,182 @@
         <v>113</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="26"/>
+      <c r="A28" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="90.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="B31" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="25" t="s">
-        <v>114</v>
+      <c r="A32" s="27" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="27" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B33" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="C33" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="C33" s="28" t="s">
+    </row>
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="B34" s="26" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="B34" s="26" t="s">
-        <v>158</v>
-      </c>
       <c r="C34" s="28" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="27" t="s">
-        <v>115</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="B35" s="30"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="27" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A37" s="27" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="B37" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="27" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="27" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="27" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="27" t="s">
+      <c r="A41" s="25" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="27" t="s">
-        <v>151</v>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="27" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="25" t="s">
-        <v>122</v>
+      <c r="A44" s="27" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="27" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="27" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="27" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="27" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="27" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="27" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="27" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="27" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="27" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="27" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="27" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="27" t="s">
         <v>134</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="27" t="s">
-        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/thewalking/shop/Product-inventory.xlsx
+++ b/src/main/java/com/thewalking/shop/Product-inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\serka\Documents\CogentTheWalking\shop\shop\src\main\java\com\thewalking\shop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F63B24-BB04-409F-AC89-2CC934253B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D5FE4EC-9CBC-4AF0-AD09-C5375BBD06D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="164">
   <si>
     <t>product</t>
   </si>
@@ -412,9 +412,6 @@
     <t xml:space="preserve">O M - Check Reviews </t>
   </si>
   <si>
-    <t>C - provide feedback to company. An email should be sent to customer to acknowledge the delivery</t>
-  </si>
-  <si>
     <t>O M - Respond to customer who left a feedback for the company</t>
   </si>
   <si>
@@ -513,15 +510,6 @@
   </si>
   <si>
     <t>M - check and reply feedbacks</t>
-  </si>
-  <si>
-    <t>O M - Can add edit categories</t>
-  </si>
-  <si>
-    <t>O M - Can add edit manufacturers</t>
-  </si>
-  <si>
-    <t>Manufacturers</t>
   </si>
   <si>
     <t>{{base}}/customers/signup</t>
@@ -664,9 +652,6 @@
     <t xml:space="preserve"> M O - Edit Product Details</t>
   </si>
   <si>
-    <t>All - Search product with SKU Code</t>
-  </si>
-  <si>
     <t>All - Search product details with product title, key words, categoryList</t>
   </si>
   <si>
@@ -714,6 +699,24 @@
     <t xml:space="preserve">{{base}}/stockrequests
 *However, the manager should create the productDescription(if not exists), then the product(if not exists), then the stock with quantity of zero to claim a new design. All these entries contain enough information to convince the big BOSS*
 </t>
+  </si>
+  <si>
+    <t>{{base}}/stocks/offers</t>
+  </si>
+  <si>
+    <t>All - Search products with TITLE, KEYWORS, and CATEGORY</t>
+  </si>
+  <si>
+    <t>{{base}}/reviews/company/all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C - provide feedback to company. </t>
+  </si>
+  <si>
+    <t>C - An email should be sent to customer to acknowledge the delivery of review</t>
+  </si>
+  <si>
+    <t>{{base}}/reviews</t>
   </si>
 </sst>
 </file>
@@ -1321,10 +1324,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{612DC713-9A32-4A78-A9EA-0C7C8E8F876A}">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1336,345 +1339,362 @@
     <col min="5" max="16384" width="9" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="E1" s="25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="132" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="E2" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="29" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="206.25" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="206.25" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="E5" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="26" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E6" s="26" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="132" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="C12" s="29" t="s">
+      <c r="C5" s="29" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="30"/>
+      <c r="C6" s="31"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="30"/>
+      <c r="C7" s="31"/>
+    </row>
+    <row r="8" spans="1:3" ht="132" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
-        <v>106</v>
+        <v>144</v>
       </c>
       <c r="B13" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="C13" s="29" t="s">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="B14" s="26" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="206.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="29"/>
+    </row>
+    <row r="15" spans="1:3" ht="123.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="C15" s="29" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="206.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="31"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="C16" s="29"/>
+    </row>
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="31"/>
-    </row>
-    <row r="18" spans="1:3" ht="132" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>139</v>
+        <v>112</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="90.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="82.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="27" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="C23" s="29" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="27" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="C24" s="29"/>
-    </row>
-    <row r="25" spans="1:3" ht="123.75" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="B25" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="C25" s="29" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="B25" s="30"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="C26" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="B26" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="C26" s="29"/>
-    </row>
-    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A27" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="B27" s="26" t="s">
-        <v>144</v>
+        <v>118</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
+      <c r="A28" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="27" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="B30" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="C30" s="28" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="90.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="B31" s="27" t="s">
-        <v>161</v>
-      </c>
-      <c r="C31" s="29" t="s">
-        <v>158</v>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="25" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="27" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="27" t="s">
-        <v>160</v>
-      </c>
-      <c r="B33" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="C33" s="28" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="27" t="s">
-        <v>159</v>
-      </c>
-      <c r="B34" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="C34" s="28" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="B35" s="30"/>
+        <v>124</v>
+      </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="B36" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="C36" s="28" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="B37" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="C37" s="29" t="s">
-        <v>158</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="27" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="27" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="25" t="s">
-        <v>121</v>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="27" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="27" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="27" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="27" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="27" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="27" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="27" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="27" t="s">
-        <v>127</v>
-      </c>
+      <c r="A47" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="27" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="B48" s="26" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="27" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+      <c r="B49" s="26" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="B50" s="26" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="27" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="B51" s="26" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="27" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="27" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="27" t="s">
-        <v>134</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/thewalking/shop/Product-inventory.xlsx
+++ b/src/main/java/com/thewalking/shop/Product-inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\serka\Documents\CogentTheWalking\shop\shop\src\main\java\com\thewalking\shop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D5FE4EC-9CBC-4AF0-AD09-C5375BBD06D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{142B7B1F-DD5B-4E59-8202-904ADFC38B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="168">
   <si>
     <t>product</t>
   </si>
@@ -471,9 +471,6 @@
   </si>
   <si>
     <t>Order</t>
-  </si>
-  <si>
-    <t>M - Customers visited on a specific date</t>
   </si>
   <si>
     <t>S - Remove an item from cart</t>
@@ -718,6 +715,21 @@
   <si>
     <t>{{base}}/reviews</t>
   </si>
+  <si>
+    <t>M - List customers who made purchase on a specific date</t>
+  </si>
+  <si>
+    <t>{{base}}/orders/2021-07-10</t>
+  </si>
+  <si>
+    <t>{{base}}/ordersitems/11</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>{{base}}/orders</t>
+  </si>
 </sst>
 </file>
 
@@ -726,7 +738,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -852,6 +864,12 @@
     <font>
       <sz val="6"/>
       <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="Corbel"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Corbel"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1326,8 +1344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{612DC713-9A32-4A78-A9EA-0C7C8E8F876A}">
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1349,10 +1367,10 @@
         <v>104</v>
       </c>
       <c r="B2" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="29" t="s">
         <v>134</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="156.75" x14ac:dyDescent="0.25">
@@ -1360,10 +1378,10 @@
         <v>105</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="206.25" x14ac:dyDescent="0.25">
@@ -1371,10 +1389,10 @@
         <v>106</v>
       </c>
       <c r="B4" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="29" t="s">
         <v>137</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="206.25" x14ac:dyDescent="0.25">
@@ -1382,10 +1400,10 @@
         <v>107</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1407,10 +1425,10 @@
         <v>110</v>
       </c>
       <c r="B8" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" s="29" t="s">
         <v>134</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1420,41 +1438,41 @@
     </row>
     <row r="13" spans="1:3" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B13" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="C13" s="29" t="s">
         <v>140</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C14" s="29"/>
     </row>
     <row r="15" spans="1:3" ht="123.75" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="B16" s="26" t="s">
         <v>146</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>147</v>
       </c>
       <c r="C16" s="29"/>
     </row>
@@ -1463,7 +1481,7 @@
         <v>112</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1475,24 +1493,24 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B19" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="C19" s="28" t="s">
         <v>150</v>
-      </c>
-      <c r="C19" s="28" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="90.75" x14ac:dyDescent="0.25">
@@ -1500,10 +1518,10 @@
         <v>114</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1513,24 +1531,24 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B23" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="C23" s="28" t="s">
         <v>150</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1544,10 +1562,10 @@
         <v>117</v>
       </c>
       <c r="B26" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="C26" s="28" t="s">
         <v>150</v>
-      </c>
-      <c r="C26" s="28" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="120" x14ac:dyDescent="0.25">
@@ -1555,10 +1573,10 @@
         <v>118</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1566,21 +1584,21 @@
         <v>119</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1590,67 +1608,85 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="27" t="s">
-        <v>121</v>
+        <v>163</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="27" t="s">
-        <v>124</v>
+        <v>123</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -1665,15 +1701,15 @@
         <v>100</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1681,7 +1717,7 @@
         <v>101</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -1689,15 +1725,16 @@
         <v>102</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
